--- a/Утренний отбор пациентов без прикрепления к врачу/Пустое_mo_june_пустые_doctor_fio_2022_07_06.xlsx
+++ b/Утренний отбор пациентов без прикрепления к врачу/Пустое_mo_june_пустые_doctor_fio_2022_07_06.xlsx
@@ -496,7 +496,7 @@
     <t>I11.9</t>
   </si>
   <si>
-    <t>I11.9;I25.2</t>
+    <t>I25.2;I11.9</t>
   </si>
   <si>
     <t>E11.7</t>
@@ -505,7 +505,7 @@
     <t>Гипертензивная [гипертоническая] болезнь с преимущественным поражением сердца без (застойной) сердечной недостаточности</t>
   </si>
   <si>
-    <t>Перенесенный в прошлом инфаркт миокарда;Гипертензивная [гипертоническая] болезнь с преимущественным поражением сердца без (застойной) сердечной недостаточности</t>
+    <t>Гипертензивная [гипертоническая] болезнь с преимущественным поражением сердца без (застойной) сердечной недостаточности;Перенесенный в прошлом инфаркт миокарда</t>
   </si>
   <si>
     <t>Инсулиннезависимый сахарный диабет с множественными осложнениями</t>
